--- a/import/_sites/all_sites.xlsx
+++ b/import/_sites/all_sites.xlsx
@@ -35,7 +35,7 @@
     <t>css_pagination</t>
   </si>
   <si>
-    <t>type</t>
+    <t>method</t>
   </si>
   <si>
     <t>mirtehniki.by</t>
@@ -747,8 +747,8 @@
   </sheetPr>
   <dimension ref="A1:F65479"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="0" pane="topLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
